--- a/phoneNBs.xlsx
+++ b/phoneNBs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\配置文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0AA8AC-D6EC-4D97-8824-4001BC57A7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91053381-ACF4-48E1-B9BE-15FCF0D56DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,28 +35,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>phoneNB_E164</t>
-  </si>
-  <si>
-    <t>922933027</t>
-  </si>
-  <si>
-    <t>935669648</t>
-  </si>
-  <si>
-    <t>933391154</t>
-  </si>
-  <si>
-    <t>925153961</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,19 +52,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,11 +80,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,17 +364,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -395,52 +382,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="str">
+      <c r="A2" t="str">
         <f>B2&amp;C2</f>
-        <v>886922933027</v>
+        <v>819023309293</v>
       </c>
       <c r="B2">
-        <v>886</v>
+        <v>81</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
+      <c r="C2" s="2">
+        <v>9023309293</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A5" si="0">B3&amp;C3</f>
-        <v>886935669648</v>
-      </c>
-      <c r="B3">
-        <v>886</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>886933391154</v>
-      </c>
-      <c r="B4">
-        <v>886</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>886925153961</v>
-      </c>
-      <c r="B5">
-        <v>886</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6"/>
@@ -513,6 +473,834 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A299"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A301"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A302"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/phoneNBs.xlsx
+++ b/phoneNBs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\配置文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91053381-ACF4-48E1-B9BE-15FCF0D56DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0645A7E3-EF2A-4795-9A04-B55408401C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,17 +44,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,10 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,7 +359,7 @@
   <dimension ref="A1:C305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -384,247 +376,859 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>B2&amp;C2</f>
-        <v>819023309293</v>
+        <v>886933487513</v>
       </c>
       <c r="B2">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9023309293</v>
+        <v>886</v>
+      </c>
+      <c r="C2">
+        <v>933487513</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3"/>
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A66" si="0">B3&amp;C3</f>
+        <v>886920860329</v>
+      </c>
+      <c r="B3">
+        <v>886</v>
+      </c>
+      <c r="C3">
+        <v>920860329</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4"/>
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>886920860329</v>
+      </c>
+      <c r="B4">
+        <v>886</v>
+      </c>
+      <c r="C4">
+        <v>920860329</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5"/>
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>886921146702</v>
+      </c>
+      <c r="B5">
+        <v>886</v>
+      </c>
+      <c r="C5">
+        <v>921146702</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6"/>
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>886921146702</v>
+      </c>
+      <c r="B6">
+        <v>886</v>
+      </c>
+      <c r="C6">
+        <v>921146702</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7"/>
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>886935389037</v>
+      </c>
+      <c r="B7">
+        <v>886</v>
+      </c>
+      <c r="C7">
+        <v>935389037</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8"/>
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>886963016792</v>
+      </c>
+      <c r="B8">
+        <v>886</v>
+      </c>
+      <c r="C8">
+        <v>963016792</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9"/>
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>886935389037</v>
+      </c>
+      <c r="B9">
+        <v>886</v>
+      </c>
+      <c r="C9">
+        <v>935389037</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10"/>
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>886928510176</v>
+      </c>
+      <c r="B10">
+        <v>886</v>
+      </c>
+      <c r="C10">
+        <v>928510176</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11"/>
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>886909709891</v>
+      </c>
+      <c r="B11">
+        <v>886</v>
+      </c>
+      <c r="C11">
+        <v>909709891</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12"/>
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>886909709891</v>
+      </c>
+      <c r="B12">
+        <v>886</v>
+      </c>
+      <c r="C12">
+        <v>909709891</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13"/>
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>886978787677</v>
+      </c>
+      <c r="B13">
+        <v>886</v>
+      </c>
+      <c r="C13">
+        <v>978787677</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14"/>
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>886978787677</v>
+      </c>
+      <c r="B14">
+        <v>886</v>
+      </c>
+      <c r="C14">
+        <v>978787677</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15"/>
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>886985141924</v>
+      </c>
+      <c r="B15">
+        <v>886</v>
+      </c>
+      <c r="C15">
+        <v>985141924</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>886985141924</v>
+      </c>
+      <c r="B16">
+        <v>886</v>
+      </c>
+      <c r="C16">
+        <v>985141924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>886922923380</v>
+      </c>
+      <c r="B17">
+        <v>886</v>
+      </c>
+      <c r="C17">
+        <v>922923380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>886920602563</v>
+      </c>
+      <c r="B18">
+        <v>886</v>
+      </c>
+      <c r="C18">
+        <v>920602563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>886920602563</v>
+      </c>
+      <c r="B19">
+        <v>886</v>
+      </c>
+      <c r="C19">
+        <v>920602563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>886921188875</v>
+      </c>
+      <c r="B20">
+        <v>886</v>
+      </c>
+      <c r="C20">
+        <v>921188875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>886922923380</v>
+      </c>
+      <c r="B21">
+        <v>886</v>
+      </c>
+      <c r="C21">
+        <v>922923380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>886921188875</v>
+      </c>
+      <c r="B22">
+        <v>886</v>
+      </c>
+      <c r="C22">
+        <v>921188875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>886933148475</v>
+      </c>
+      <c r="B23">
+        <v>886</v>
+      </c>
+      <c r="C23">
+        <v>933148475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>886933148475</v>
+      </c>
+      <c r="B24">
+        <v>886</v>
+      </c>
+      <c r="C24">
+        <v>933148475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>886937594809</v>
+      </c>
+      <c r="B25">
+        <v>886</v>
+      </c>
+      <c r="C25">
+        <v>937594809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>886970528714</v>
+      </c>
+      <c r="B26">
+        <v>886</v>
+      </c>
+      <c r="C26">
+        <v>970528714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>886937594809</v>
+      </c>
+      <c r="B27">
+        <v>886</v>
+      </c>
+      <c r="C27">
+        <v>937594809</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>886970528714</v>
+      </c>
+      <c r="B28">
+        <v>886</v>
+      </c>
+      <c r="C28">
+        <v>970528714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>886983854678</v>
+      </c>
+      <c r="B29">
+        <v>886</v>
+      </c>
+      <c r="C29">
+        <v>983854678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>886978170154</v>
+      </c>
+      <c r="B30">
+        <v>886</v>
+      </c>
+      <c r="C30">
+        <v>978170154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>886908887601</v>
+      </c>
+      <c r="B31">
+        <v>886</v>
+      </c>
+      <c r="C31">
+        <v>908887601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>886912041202</v>
+      </c>
+      <c r="B32">
+        <v>886</v>
+      </c>
+      <c r="C32">
+        <v>912041202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>886912041202</v>
+      </c>
+      <c r="B33">
+        <v>886</v>
+      </c>
+      <c r="C33">
+        <v>912041202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>886963044653</v>
+      </c>
+      <c r="B34">
+        <v>886</v>
+      </c>
+      <c r="C34">
+        <v>963044653</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>886981755617</v>
+      </c>
+      <c r="B35">
+        <v>886</v>
+      </c>
+      <c r="C35">
+        <v>981755617</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>886963044653</v>
+      </c>
+      <c r="B36">
+        <v>886</v>
+      </c>
+      <c r="C36">
+        <v>963044653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>886962037616</v>
+      </c>
+      <c r="B37">
+        <v>886</v>
+      </c>
+      <c r="C37">
+        <v>962037616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>886911033369</v>
+      </c>
+      <c r="B38">
+        <v>886</v>
+      </c>
+      <c r="C38">
+        <v>911033369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>886911033369</v>
+      </c>
+      <c r="B39">
+        <v>886</v>
+      </c>
+      <c r="C39">
+        <v>911033369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>886906371536</v>
+      </c>
+      <c r="B40">
+        <v>886</v>
+      </c>
+      <c r="C40">
+        <v>906371536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>886906371536</v>
+      </c>
+      <c r="B41">
+        <v>886</v>
+      </c>
+      <c r="C41">
+        <v>906371536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>886921470017</v>
+      </c>
+      <c r="B42">
+        <v>886</v>
+      </c>
+      <c r="C42">
+        <v>921470017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>886966578801</v>
+      </c>
+      <c r="B43">
+        <v>886</v>
+      </c>
+      <c r="C43">
+        <v>966578801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>886921470017</v>
+      </c>
+      <c r="B44">
+        <v>886</v>
+      </c>
+      <c r="C44">
+        <v>921470017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>886926018551</v>
+      </c>
+      <c r="B45">
+        <v>886</v>
+      </c>
+      <c r="C45">
+        <v>926018551</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>886911065251</v>
+      </c>
+      <c r="B46">
+        <v>886</v>
+      </c>
+      <c r="C46">
+        <v>911065251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>88664315563</v>
+      </c>
+      <c r="B47">
+        <v>886</v>
+      </c>
+      <c r="C47">
+        <v>64315563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>88664870517</v>
+      </c>
+      <c r="B48">
+        <v>886</v>
+      </c>
+      <c r="C48">
+        <v>64870517</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>88668775703</v>
+      </c>
+      <c r="B49">
+        <v>886</v>
+      </c>
+      <c r="C49">
+        <v>68775703</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>88655368472</v>
+      </c>
+      <c r="B50">
+        <v>886</v>
+      </c>
+      <c r="C50">
+        <v>55368472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>88697190113</v>
+      </c>
+      <c r="B51">
+        <v>886</v>
+      </c>
+      <c r="C51">
+        <v>97190113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>88693497554</v>
+      </c>
+      <c r="B52">
+        <v>886</v>
+      </c>
+      <c r="C52">
+        <v>93497554</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>88651658260</v>
+      </c>
+      <c r="B53">
+        <v>886</v>
+      </c>
+      <c r="C53">
+        <v>51658260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>88651301123</v>
+      </c>
+      <c r="B54">
+        <v>886</v>
+      </c>
+      <c r="C54">
+        <v>51301123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>88667402432</v>
+      </c>
+      <c r="B55">
+        <v>886</v>
+      </c>
+      <c r="C55">
+        <v>67402432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>88651736929</v>
+      </c>
+      <c r="B56">
+        <v>886</v>
+      </c>
+      <c r="C56">
+        <v>51736929</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>88653956409</v>
+      </c>
+      <c r="B57">
+        <v>886</v>
+      </c>
+      <c r="C57">
+        <v>53956409</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>88669395274</v>
+      </c>
+      <c r="B58">
+        <v>886</v>
+      </c>
+      <c r="C58">
+        <v>69395274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>88668731263</v>
+      </c>
+      <c r="B59">
+        <v>886</v>
+      </c>
+      <c r="C59">
+        <v>68731263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>88666483824</v>
+      </c>
+      <c r="B60">
+        <v>886</v>
+      </c>
+      <c r="C60">
+        <v>66483824</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>88668786675</v>
+      </c>
+      <c r="B61">
+        <v>886</v>
+      </c>
+      <c r="C61">
+        <v>68786675</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>88669155326</v>
+      </c>
+      <c r="B62">
+        <v>886</v>
+      </c>
+      <c r="C62">
+        <v>69155326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>88653031127</v>
+      </c>
+      <c r="B63">
+        <v>886</v>
+      </c>
+      <c r="C63">
+        <v>53031127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>88651051793</v>
+      </c>
+      <c r="B64">
+        <v>886</v>
+      </c>
+      <c r="C64">
+        <v>51051793</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>88669793768</v>
+      </c>
+      <c r="B65">
+        <v>886</v>
+      </c>
+      <c r="C65">
+        <v>69793768</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
+        <f t="shared" si="0"/>
+        <v>88669413463</v>
+      </c>
+      <c r="B66">
+        <v>886</v>
+      </c>
+      <c r="C66">
+        <v>69413463</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
+        <f t="shared" ref="A67:A70" si="1">B67&amp;C67</f>
+        <v>88665872529</v>
+      </c>
+      <c r="B67">
+        <v>886</v>
+      </c>
+      <c r="C67">
+        <v>65872529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
+        <f t="shared" si="1"/>
+        <v>88663576695</v>
+      </c>
+      <c r="B68">
+        <v>886</v>
+      </c>
+      <c r="C68">
+        <v>63576695</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
+        <f t="shared" si="1"/>
+        <v>88668521234</v>
+      </c>
+      <c r="B69">
+        <v>886</v>
+      </c>
+      <c r="C69">
+        <v>68521234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
+        <f t="shared" si="1"/>
+        <v>88669139385</v>
+      </c>
+      <c r="B70">
+        <v>886</v>
+      </c>
+      <c r="C70">
+        <v>69139385</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">

--- a/phoneNBs.xlsx
+++ b/phoneNBs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\配置文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0645A7E3-EF2A-4795-9A04-B55408401C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E98EB8D-F199-41BC-8ECD-A8A51280FA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,7 +359,7 @@
   <dimension ref="A1:C305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -376,859 +376,328 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>B2&amp;C2</f>
-        <v>886933487513</v>
+        <v>16303912288</v>
       </c>
       <c r="B2">
-        <v>886</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>933487513</v>
+        <v>6303912288</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">B3&amp;C3</f>
-        <v>886920860329</v>
+        <f t="shared" ref="A3:A11" si="0">B3&amp;C3</f>
+        <v>19706304045</v>
       </c>
       <c r="B3">
-        <v>886</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>920860329</v>
+        <v>9706304045</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>886920860329</v>
+        <v>12102744642</v>
       </c>
       <c r="B4">
-        <v>886</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>920860329</v>
+        <v>2102744642</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>886921146702</v>
+        <v>18014039410</v>
       </c>
       <c r="B5">
-        <v>886</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>921146702</v>
+        <v>8014039410</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>886921146702</v>
+        <v>17176988327</v>
       </c>
       <c r="B6">
-        <v>886</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>921146702</v>
+        <v>7176988327</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>886935389037</v>
+        <v>17858298907</v>
       </c>
       <c r="B7">
-        <v>886</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>935389037</v>
+        <v>7858298907</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>886963016792</v>
+        <v>17086660341</v>
       </c>
       <c r="B8">
-        <v>886</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>963016792</v>
+        <v>7086660341</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>886935389037</v>
+        <v>13044948660</v>
       </c>
       <c r="B9">
-        <v>886</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>935389037</v>
+        <v>3044948660</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>886928510176</v>
+        <v>19197099222</v>
       </c>
       <c r="B10">
-        <v>886</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>928510176</v>
+        <v>9197099222</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>886909709891</v>
+        <v>19257086703</v>
       </c>
       <c r="B11">
-        <v>886</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>909709891</v>
+        <v>9257086703</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>886909709891</v>
-      </c>
-      <c r="B12">
-        <v>886</v>
-      </c>
-      <c r="C12">
-        <v>909709891</v>
-      </c>
+      <c r="A12"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>886978787677</v>
-      </c>
-      <c r="B13">
-        <v>886</v>
-      </c>
-      <c r="C13">
-        <v>978787677</v>
-      </c>
+      <c r="A13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>886978787677</v>
-      </c>
-      <c r="B14">
-        <v>886</v>
-      </c>
-      <c r="C14">
-        <v>978787677</v>
-      </c>
+      <c r="A14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>886985141924</v>
-      </c>
-      <c r="B15">
-        <v>886</v>
-      </c>
-      <c r="C15">
-        <v>985141924</v>
-      </c>
+      <c r="A15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>886985141924</v>
-      </c>
-      <c r="B16">
-        <v>886</v>
-      </c>
-      <c r="C16">
-        <v>985141924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>886922923380</v>
-      </c>
-      <c r="B17">
-        <v>886</v>
-      </c>
-      <c r="C17">
-        <v>922923380</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>886920602563</v>
-      </c>
-      <c r="B18">
-        <v>886</v>
-      </c>
-      <c r="C18">
-        <v>920602563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>886920602563</v>
-      </c>
-      <c r="B19">
-        <v>886</v>
-      </c>
-      <c r="C19">
-        <v>920602563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>886921188875</v>
-      </c>
-      <c r="B20">
-        <v>886</v>
-      </c>
-      <c r="C20">
-        <v>921188875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>886922923380</v>
-      </c>
-      <c r="B21">
-        <v>886</v>
-      </c>
-      <c r="C21">
-        <v>922923380</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>886921188875</v>
-      </c>
-      <c r="B22">
-        <v>886</v>
-      </c>
-      <c r="C22">
-        <v>921188875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>886933148475</v>
-      </c>
-      <c r="B23">
-        <v>886</v>
-      </c>
-      <c r="C23">
-        <v>933148475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>886933148475</v>
-      </c>
-      <c r="B24">
-        <v>886</v>
-      </c>
-      <c r="C24">
-        <v>933148475</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>886937594809</v>
-      </c>
-      <c r="B25">
-        <v>886</v>
-      </c>
-      <c r="C25">
-        <v>937594809</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>886970528714</v>
-      </c>
-      <c r="B26">
-        <v>886</v>
-      </c>
-      <c r="C26">
-        <v>970528714</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>886937594809</v>
-      </c>
-      <c r="B27">
-        <v>886</v>
-      </c>
-      <c r="C27">
-        <v>937594809</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>886970528714</v>
-      </c>
-      <c r="B28">
-        <v>886</v>
-      </c>
-      <c r="C28">
-        <v>970528714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>886983854678</v>
-      </c>
-      <c r="B29">
-        <v>886</v>
-      </c>
-      <c r="C29">
-        <v>983854678</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>886978170154</v>
-      </c>
-      <c r="B30">
-        <v>886</v>
-      </c>
-      <c r="C30">
-        <v>978170154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>886908887601</v>
-      </c>
-      <c r="B31">
-        <v>886</v>
-      </c>
-      <c r="C31">
-        <v>908887601</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>886912041202</v>
-      </c>
-      <c r="B32">
-        <v>886</v>
-      </c>
-      <c r="C32">
-        <v>912041202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>886912041202</v>
-      </c>
-      <c r="B33">
-        <v>886</v>
-      </c>
-      <c r="C33">
-        <v>912041202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v>886963044653</v>
-      </c>
-      <c r="B34">
-        <v>886</v>
-      </c>
-      <c r="C34">
-        <v>963044653</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v>886981755617</v>
-      </c>
-      <c r="B35">
-        <v>886</v>
-      </c>
-      <c r="C35">
-        <v>981755617</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v>886963044653</v>
-      </c>
-      <c r="B36">
-        <v>886</v>
-      </c>
-      <c r="C36">
-        <v>963044653</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v>886962037616</v>
-      </c>
-      <c r="B37">
-        <v>886</v>
-      </c>
-      <c r="C37">
-        <v>962037616</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="str">
-        <f t="shared" si="0"/>
-        <v>886911033369</v>
-      </c>
-      <c r="B38">
-        <v>886</v>
-      </c>
-      <c r="C38">
-        <v>911033369</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="str">
-        <f t="shared" si="0"/>
-        <v>886911033369</v>
-      </c>
-      <c r="B39">
-        <v>886</v>
-      </c>
-      <c r="C39">
-        <v>911033369</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="str">
-        <f t="shared" si="0"/>
-        <v>886906371536</v>
-      </c>
-      <c r="B40">
-        <v>886</v>
-      </c>
-      <c r="C40">
-        <v>906371536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="str">
-        <f t="shared" si="0"/>
-        <v>886906371536</v>
-      </c>
-      <c r="B41">
-        <v>886</v>
-      </c>
-      <c r="C41">
-        <v>906371536</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="str">
-        <f t="shared" si="0"/>
-        <v>886921470017</v>
-      </c>
-      <c r="B42">
-        <v>886</v>
-      </c>
-      <c r="C42">
-        <v>921470017</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="str">
-        <f t="shared" si="0"/>
-        <v>886966578801</v>
-      </c>
-      <c r="B43">
-        <v>886</v>
-      </c>
-      <c r="C43">
-        <v>966578801</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="str">
-        <f t="shared" si="0"/>
-        <v>886921470017</v>
-      </c>
-      <c r="B44">
-        <v>886</v>
-      </c>
-      <c r="C44">
-        <v>921470017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="str">
-        <f t="shared" si="0"/>
-        <v>886926018551</v>
-      </c>
-      <c r="B45">
-        <v>886</v>
-      </c>
-      <c r="C45">
-        <v>926018551</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="str">
-        <f t="shared" si="0"/>
-        <v>886911065251</v>
-      </c>
-      <c r="B46">
-        <v>886</v>
-      </c>
-      <c r="C46">
-        <v>911065251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="str">
-        <f t="shared" si="0"/>
-        <v>88664315563</v>
-      </c>
-      <c r="B47">
-        <v>886</v>
-      </c>
-      <c r="C47">
-        <v>64315563</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="str">
-        <f t="shared" si="0"/>
-        <v>88664870517</v>
-      </c>
-      <c r="B48">
-        <v>886</v>
-      </c>
-      <c r="C48">
-        <v>64870517</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="str">
-        <f t="shared" si="0"/>
-        <v>88668775703</v>
-      </c>
-      <c r="B49">
-        <v>886</v>
-      </c>
-      <c r="C49">
-        <v>68775703</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="str">
-        <f t="shared" si="0"/>
-        <v>88655368472</v>
-      </c>
-      <c r="B50">
-        <v>886</v>
-      </c>
-      <c r="C50">
-        <v>55368472</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="str">
-        <f t="shared" si="0"/>
-        <v>88697190113</v>
-      </c>
-      <c r="B51">
-        <v>886</v>
-      </c>
-      <c r="C51">
-        <v>97190113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="str">
-        <f t="shared" si="0"/>
-        <v>88693497554</v>
-      </c>
-      <c r="B52">
-        <v>886</v>
-      </c>
-      <c r="C52">
-        <v>93497554</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="str">
-        <f t="shared" si="0"/>
-        <v>88651658260</v>
-      </c>
-      <c r="B53">
-        <v>886</v>
-      </c>
-      <c r="C53">
-        <v>51658260</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="str">
-        <f t="shared" si="0"/>
-        <v>88651301123</v>
-      </c>
-      <c r="B54">
-        <v>886</v>
-      </c>
-      <c r="C54">
-        <v>51301123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="str">
-        <f t="shared" si="0"/>
-        <v>88667402432</v>
-      </c>
-      <c r="B55">
-        <v>886</v>
-      </c>
-      <c r="C55">
-        <v>67402432</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="str">
-        <f t="shared" si="0"/>
-        <v>88651736929</v>
-      </c>
-      <c r="B56">
-        <v>886</v>
-      </c>
-      <c r="C56">
-        <v>51736929</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="str">
-        <f t="shared" si="0"/>
-        <v>88653956409</v>
-      </c>
-      <c r="B57">
-        <v>886</v>
-      </c>
-      <c r="C57">
-        <v>53956409</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="str">
-        <f t="shared" si="0"/>
-        <v>88669395274</v>
-      </c>
-      <c r="B58">
-        <v>886</v>
-      </c>
-      <c r="C58">
-        <v>69395274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="str">
-        <f t="shared" si="0"/>
-        <v>88668731263</v>
-      </c>
-      <c r="B59">
-        <v>886</v>
-      </c>
-      <c r="C59">
-        <v>68731263</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="str">
-        <f t="shared" si="0"/>
-        <v>88666483824</v>
-      </c>
-      <c r="B60">
-        <v>886</v>
-      </c>
-      <c r="C60">
-        <v>66483824</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="str">
-        <f t="shared" si="0"/>
-        <v>88668786675</v>
-      </c>
-      <c r="B61">
-        <v>886</v>
-      </c>
-      <c r="C61">
-        <v>68786675</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="str">
-        <f t="shared" si="0"/>
-        <v>88669155326</v>
-      </c>
-      <c r="B62">
-        <v>886</v>
-      </c>
-      <c r="C62">
-        <v>69155326</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="str">
-        <f t="shared" si="0"/>
-        <v>88653031127</v>
-      </c>
-      <c r="B63">
-        <v>886</v>
-      </c>
-      <c r="C63">
-        <v>53031127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="str">
-        <f t="shared" si="0"/>
-        <v>88651051793</v>
-      </c>
-      <c r="B64">
-        <v>886</v>
-      </c>
-      <c r="C64">
-        <v>51051793</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="str">
-        <f t="shared" si="0"/>
-        <v>88669793768</v>
-      </c>
-      <c r="B65">
-        <v>886</v>
-      </c>
-      <c r="C65">
-        <v>69793768</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="str">
-        <f t="shared" si="0"/>
-        <v>88669413463</v>
-      </c>
-      <c r="B66">
-        <v>886</v>
-      </c>
-      <c r="C66">
-        <v>69413463</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="str">
-        <f t="shared" ref="A67:A70" si="1">B67&amp;C67</f>
-        <v>88665872529</v>
-      </c>
-      <c r="B67">
-        <v>886</v>
-      </c>
-      <c r="C67">
-        <v>65872529</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="str">
-        <f t="shared" si="1"/>
-        <v>88663576695</v>
-      </c>
-      <c r="B68">
-        <v>886</v>
-      </c>
-      <c r="C68">
-        <v>63576695</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="str">
-        <f t="shared" si="1"/>
-        <v>88668521234</v>
-      </c>
-      <c r="B69">
-        <v>886</v>
-      </c>
-      <c r="C69">
-        <v>68521234</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="str">
-        <f t="shared" si="1"/>
-        <v>88669139385</v>
-      </c>
-      <c r="B70">
-        <v>886</v>
-      </c>
-      <c r="C70">
-        <v>69139385</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">

--- a/phoneNBs.xlsx
+++ b/phoneNBs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\配置文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E98EB8D-F199-41BC-8ECD-A8A51280FA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E3BAB6-F70E-42AA-AB7C-44BA395CF89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
   <dimension ref="A1:C305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -376,122 +376,41 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>B2&amp;C2</f>
-        <v>16303912288</v>
+        <v>85264628862</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>852</v>
       </c>
       <c r="C2">
-        <v>6303912288</v>
+        <v>64628862</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A11" si="0">B3&amp;C3</f>
-        <v>19706304045</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>9706304045</v>
-      </c>
+      <c r="A3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>12102744642</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2102744642</v>
-      </c>
+      <c r="A4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>18014039410</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>8014039410</v>
-      </c>
+      <c r="A5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>17176988327</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>7176988327</v>
-      </c>
+      <c r="A6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>17858298907</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>7858298907</v>
-      </c>
+      <c r="A7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>17086660341</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7086660341</v>
-      </c>
+      <c r="A8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>13044948660</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>3044948660</v>
-      </c>
+      <c r="A9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>19197099222</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>9197099222</v>
-      </c>
+      <c r="A10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>19257086703</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>9257086703</v>
-      </c>
+      <c r="A11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12"/>

--- a/phoneNBs.xlsx
+++ b/phoneNBs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\配置文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E3BAB6-F70E-42AA-AB7C-44BA395CF89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034039B5-FD44-42E4-86DA-98B691FDD4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,939 +359,967 @@
   <dimension ref="A1:C305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>B2&amp;C2</f>
-        <v>85264628862</v>
+        <v>85254035706</v>
       </c>
       <c r="B2">
         <v>852</v>
       </c>
       <c r="C2">
-        <v>64628862</v>
+        <v>54035706</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A5" si="0">B3&amp;C3</f>
+        <v>85251103893</v>
+      </c>
+      <c r="B3">
+        <v>852</v>
+      </c>
+      <c r="C3">
+        <v>51103893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>85254035706</v>
+      </c>
+      <c r="B4">
+        <v>852</v>
+      </c>
+      <c r="C4">
+        <v>54035706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>85254075862</v>
+      </c>
+      <c r="B5">
+        <v>852</v>
+      </c>
+      <c r="C5">
+        <v>54075862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305"/>
     </row>
   </sheetData>

--- a/phoneNBs.xlsx
+++ b/phoneNBs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wt/Documents/配置文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAB83CA-4AF7-6447-87D2-AB941B812152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ACA292-A227-1346-BA8D-1EDB573D9640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="-240" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,13 +44,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,9 +79,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -369,14 +376,369 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>818093626838</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="str">
+        <f>B2&amp;C2</f>
+        <v>85365218405</v>
+      </c>
+      <c r="B2">
+        <v>853</v>
+      </c>
+      <c r="C2" s="2">
+        <v>65218405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="str">
+        <f t="shared" ref="A3:A31" si="0">B3&amp;C3</f>
+        <v>85363880058</v>
+      </c>
+      <c r="B3">
+        <v>853</v>
+      </c>
+      <c r="C3" s="2">
+        <v>63880058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85365218405</v>
+      </c>
+      <c r="B4">
+        <v>853</v>
+      </c>
+      <c r="C4" s="2">
+        <v>65218405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85363888996</v>
+      </c>
+      <c r="B5">
+        <v>853</v>
+      </c>
+      <c r="C5" s="2">
+        <v>63888996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85365216772</v>
+      </c>
+      <c r="B6">
+        <v>853</v>
+      </c>
+      <c r="C6" s="2">
+        <v>65216772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85362159249</v>
+      </c>
+      <c r="B7">
+        <v>853</v>
+      </c>
+      <c r="C7" s="2">
+        <v>62159249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85363887145</v>
+      </c>
+      <c r="B8">
+        <v>853</v>
+      </c>
+      <c r="C8" s="2">
+        <v>63887145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85363887680</v>
+      </c>
+      <c r="B9">
+        <v>853</v>
+      </c>
+      <c r="C9" s="2">
+        <v>63887680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85363887680</v>
+      </c>
+      <c r="B10">
+        <v>853</v>
+      </c>
+      <c r="C10" s="2">
+        <v>63887680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85368282720</v>
+      </c>
+      <c r="B11">
+        <v>853</v>
+      </c>
+      <c r="C11" s="2">
+        <v>68282720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85363760242</v>
+      </c>
+      <c r="B12">
+        <v>853</v>
+      </c>
+      <c r="C12" s="2">
+        <v>63760242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85365218405</v>
+      </c>
+      <c r="B13">
+        <v>853</v>
+      </c>
+      <c r="C13" s="2">
+        <v>65218405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85365218405</v>
+      </c>
+      <c r="B14">
+        <v>853</v>
+      </c>
+      <c r="C14" s="2">
+        <v>65218405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85365218405</v>
+      </c>
+      <c r="B15">
+        <v>853</v>
+      </c>
+      <c r="C15" s="2">
+        <v>65218405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85365656496</v>
+      </c>
+      <c r="B16">
+        <v>853</v>
+      </c>
+      <c r="C16" s="2">
+        <v>65656496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85365656496</v>
+      </c>
+      <c r="B17">
+        <v>853</v>
+      </c>
+      <c r="C17" s="2">
+        <v>65656496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85362191926</v>
+      </c>
+      <c r="B18">
+        <v>853</v>
+      </c>
+      <c r="C18" s="2">
+        <v>62191926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85362191926</v>
+      </c>
+      <c r="B19">
+        <v>853</v>
+      </c>
+      <c r="C19" s="2">
+        <v>62191926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85368255023</v>
+      </c>
+      <c r="B20">
+        <v>853</v>
+      </c>
+      <c r="C20" s="2">
+        <v>68255023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85362191926</v>
+      </c>
+      <c r="B21">
+        <v>853</v>
+      </c>
+      <c r="C21" s="2">
+        <v>62191926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85368278313</v>
+      </c>
+      <c r="B22">
+        <v>853</v>
+      </c>
+      <c r="C22" s="2">
+        <v>68278313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85362191926</v>
+      </c>
+      <c r="B23">
+        <v>853</v>
+      </c>
+      <c r="C23" s="2">
+        <v>62191926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85368850924</v>
+      </c>
+      <c r="B24">
+        <v>853</v>
+      </c>
+      <c r="C24" s="2">
+        <v>68850924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85368273725</v>
+      </c>
+      <c r="B25">
+        <v>853</v>
+      </c>
+      <c r="C25" s="2">
+        <v>68273725</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85365216150</v>
+      </c>
+      <c r="B26">
+        <v>853</v>
+      </c>
+      <c r="C26" s="2">
+        <v>65216150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85366704747</v>
+      </c>
+      <c r="B27">
+        <v>853</v>
+      </c>
+      <c r="C27" s="2">
+        <v>66704747</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85362164797</v>
+      </c>
+      <c r="B28">
+        <v>853</v>
+      </c>
+      <c r="C28" s="2">
+        <v>62164797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85362164797</v>
+      </c>
+      <c r="B29">
+        <v>853</v>
+      </c>
+      <c r="C29" s="2">
+        <v>62164797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85363860492</v>
+      </c>
+      <c r="B30">
+        <v>853</v>
+      </c>
+      <c r="C30" s="2">
+        <v>63860492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>85363860492</v>
+      </c>
+      <c r="B31">
+        <v>853</v>
+      </c>
+      <c r="C31" s="2">
+        <v>63860492</v>
       </c>
     </row>
   </sheetData>

--- a/phoneNBs.xlsx
+++ b/phoneNBs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wt/Documents/配置文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ACA292-A227-1346-BA8D-1EDB573D9640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0A0903-8E57-844A-AC4B-620D2E631BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="-240" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -382,364 +382,97 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="str">
-        <f>B2&amp;C2</f>
-        <v>85365218405</v>
+      <c r="A2" s="1">
+        <v>62817772284</v>
       </c>
-      <c r="B2">
-        <v>853</v>
-      </c>
-      <c r="C2" s="2">
-        <v>65218405</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A31" si="0">B3&amp;C3</f>
-        <v>85363880058</v>
-      </c>
-      <c r="B3">
-        <v>853</v>
-      </c>
-      <c r="C3" s="2">
-        <v>63880058</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85365218405</v>
-      </c>
-      <c r="B4">
-        <v>853</v>
-      </c>
-      <c r="C4" s="2">
-        <v>65218405</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85363888996</v>
-      </c>
-      <c r="B5">
-        <v>853</v>
-      </c>
-      <c r="C5" s="2">
-        <v>63888996</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85365216772</v>
-      </c>
-      <c r="B6">
-        <v>853</v>
-      </c>
-      <c r="C6" s="2">
-        <v>65216772</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85362159249</v>
-      </c>
-      <c r="B7">
-        <v>853</v>
-      </c>
-      <c r="C7" s="2">
-        <v>62159249</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85363887145</v>
-      </c>
-      <c r="B8">
-        <v>853</v>
-      </c>
-      <c r="C8" s="2">
-        <v>63887145</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85363887680</v>
-      </c>
-      <c r="B9">
-        <v>853</v>
-      </c>
-      <c r="C9" s="2">
-        <v>63887680</v>
-      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85363887680</v>
-      </c>
-      <c r="B10">
-        <v>853</v>
-      </c>
-      <c r="C10" s="2">
-        <v>63887680</v>
-      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85368282720</v>
-      </c>
-      <c r="B11">
-        <v>853</v>
-      </c>
-      <c r="C11" s="2">
-        <v>68282720</v>
-      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85363760242</v>
-      </c>
-      <c r="B12">
-        <v>853</v>
-      </c>
-      <c r="C12" s="2">
-        <v>63760242</v>
-      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85365218405</v>
-      </c>
-      <c r="B13">
-        <v>853</v>
-      </c>
-      <c r="C13" s="2">
-        <v>65218405</v>
-      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85365218405</v>
-      </c>
-      <c r="B14">
-        <v>853</v>
-      </c>
-      <c r="C14" s="2">
-        <v>65218405</v>
-      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85365218405</v>
-      </c>
-      <c r="B15">
-        <v>853</v>
-      </c>
-      <c r="C15" s="2">
-        <v>65218405</v>
-      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85365656496</v>
-      </c>
-      <c r="B16">
-        <v>853</v>
-      </c>
-      <c r="C16" s="2">
-        <v>65656496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85365656496</v>
-      </c>
-      <c r="B17">
-        <v>853</v>
-      </c>
-      <c r="C17" s="2">
-        <v>65656496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85362191926</v>
-      </c>
-      <c r="B18">
-        <v>853</v>
-      </c>
-      <c r="C18" s="2">
-        <v>62191926</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85362191926</v>
-      </c>
-      <c r="B19">
-        <v>853</v>
-      </c>
-      <c r="C19" s="2">
-        <v>62191926</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85368255023</v>
-      </c>
-      <c r="B20">
-        <v>853</v>
-      </c>
-      <c r="C20" s="2">
-        <v>68255023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85362191926</v>
-      </c>
-      <c r="B21">
-        <v>853</v>
-      </c>
-      <c r="C21" s="2">
-        <v>62191926</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85368278313</v>
-      </c>
-      <c r="B22">
-        <v>853</v>
-      </c>
-      <c r="C22" s="2">
-        <v>68278313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85362191926</v>
-      </c>
-      <c r="B23">
-        <v>853</v>
-      </c>
-      <c r="C23" s="2">
-        <v>62191926</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85368850924</v>
-      </c>
-      <c r="B24">
-        <v>853</v>
-      </c>
-      <c r="C24" s="2">
-        <v>68850924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85368273725</v>
-      </c>
-      <c r="B25">
-        <v>853</v>
-      </c>
-      <c r="C25" s="2">
-        <v>68273725</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85365216150</v>
-      </c>
-      <c r="B26">
-        <v>853</v>
-      </c>
-      <c r="C26" s="2">
-        <v>65216150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85366704747</v>
-      </c>
-      <c r="B27">
-        <v>853</v>
-      </c>
-      <c r="C27" s="2">
-        <v>66704747</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85362164797</v>
-      </c>
-      <c r="B28">
-        <v>853</v>
-      </c>
-      <c r="C28" s="2">
-        <v>62164797</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85362164797</v>
-      </c>
-      <c r="B29">
-        <v>853</v>
-      </c>
-      <c r="C29" s="2">
-        <v>62164797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85363860492</v>
-      </c>
-      <c r="B30">
-        <v>853</v>
-      </c>
-      <c r="C30" s="2">
-        <v>63860492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>85363860492</v>
-      </c>
-      <c r="B31">
-        <v>853</v>
-      </c>
-      <c r="C31" s="2">
-        <v>63860492</v>
-      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
